--- a/companies-sensor.xlsx
+++ b/companies-sensor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siah Wee Hung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Kang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C97AF-6773-4E54-B8AD-EA2F2CE850C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F58A7F-9D22-4681-B7FD-BBB08309F23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>Company Name</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>http://www.occipital.com/</t>
+  </si>
+  <si>
+    <t>https://geo-matching.com/paracosm</t>
   </si>
 </sst>
 </file>
@@ -795,19 +798,19 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" customWidth="1"/>
-    <col min="4" max="4" width="46.7265625" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -841,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -858,7 +861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -875,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -888,8 +891,11 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -906,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -923,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -940,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -957,7 +963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -974,7 +980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -991,7 +997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -1334,6 +1340,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{A34D7C5D-7BEA-4E62-ACE8-8D6A52683D02}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{504F6620-63D3-4FB0-B9D6-3C57BD62ED44}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/companies-sensor.xlsx
+++ b/companies-sensor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Kang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F58A7F-9D22-4681-B7FD-BBB08309F23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5E4DB-C0B6-4F64-8D15-5FD8B177D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27375" yWindow="1425" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>https://nerian.com/</t>
   </si>
   <si>
-    <t>http://www.geniusmatcher.com/</t>
-  </si>
-  <si>
     <t>https://neogoma.com/</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>https://geo-matching.com/paracosm</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
